--- a/data_storage/user_data.xlsx
+++ b/data_storage/user_data.xlsx
@@ -49,7 +49,7 @@
     <t xml:space="preserve">ashwin.raj@manipalgroup.info</t>
   </si>
   <si>
-    <t xml:space="preserve">Ashwin.r</t>
+    <t xml:space="preserve">Ashwin_r</t>
   </si>
   <si>
     <t xml:space="preserve">Ash@nra</t>
@@ -61,7 +61,7 @@
     <t xml:space="preserve">jnanesha.s@manipalgroup.info</t>
   </si>
   <si>
-    <t xml:space="preserve">Jnanesha.s</t>
+    <t xml:space="preserve">Jnanesha_s</t>
   </si>
   <si>
     <t xml:space="preserve">Jan@esa</t>
@@ -73,7 +73,7 @@
     <t xml:space="preserve">shashikanth.n@manipalgroup.info</t>
   </si>
   <si>
-    <t xml:space="preserve">Shashikanth.n</t>
+    <t xml:space="preserve">Shashikanth_n</t>
   </si>
   <si>
     <t xml:space="preserve">Sha@hik</t>
@@ -85,7 +85,7 @@
     <t xml:space="preserve">praveen.yn@manipalgroup.info</t>
   </si>
   <si>
-    <t xml:space="preserve">Praveen.y</t>
+    <t xml:space="preserve">Praveen_y</t>
   </si>
   <si>
     <t xml:space="preserve">Pra@ynn</t>
@@ -97,7 +97,7 @@
     <t xml:space="preserve">satish.a@manipalgroup.info</t>
   </si>
   <si>
-    <t xml:space="preserve">Sathish.a</t>
+    <t xml:space="preserve">Sathish_a</t>
   </si>
   <si>
     <t xml:space="preserve">Sat@har</t>
@@ -109,7 +109,7 @@
     <t xml:space="preserve">chethan.acharya@manipalgroup.info</t>
   </si>
   <si>
-    <t xml:space="preserve">Chethan.a</t>
+    <t xml:space="preserve">Chethan_a</t>
   </si>
   <si>
     <t xml:space="preserve">Chet@ach</t>
@@ -121,7 +121,7 @@
     <t xml:space="preserve">t.surendar@manipalgroup.info</t>
   </si>
   <si>
-    <t xml:space="preserve">Surendar.t</t>
+    <t xml:space="preserve">Surendar_t</t>
   </si>
   <si>
     <t xml:space="preserve">Sur@gav</t>
@@ -262,18 +262,18 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="31.5867346938776"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="31.1836734693878"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="9.85204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
